--- a/SorteioGrupos/documentos/Investimentos.xlsx
+++ b/SorteioGrupos/documentos/Investimentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\SENAI\Planos_Ensino\2020_2_Semestre\ProjetoIntegrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\SENAI\Planos_Ensino\2020_2_Semestre\ProjetoIntegrador1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C447C-2BA6-4C8D-A192-78046D31B069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61633FA-F6B3-47D6-8E0D-E79A45F5F047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{A2EFEAD8-89AC-4165-9D5E-89350841DA2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A2EFEAD8-89AC-4165-9D5E-89350841DA2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Maria José" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Marta Silva" sheetId="3" r:id="rId3"/>
     <sheet name="Zélia Ferreira" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Maria José'!$A$1:$M$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -114,10 +117,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +158,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,12 +184,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -188,25 +201,16 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Vírgula" xfId="3" builtinId="3"/>
   </cellStyles>
-  <dxfs count="108">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <font>
         <b/>
@@ -216,16 +220,15 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -243,8 +246,31 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -289,16 +315,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF002060"/>
@@ -454,335 +470,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1127,7 +814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E35660-47F2-415B-B371-9A876C5CB1D5}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1269,28 +958,28 @@
         <v>12.82</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F11" si="0">D5-D5*$B$2</f>
+        <f t="shared" ref="F5:F7" si="0">D5-D5*$B$2</f>
         <v>17.831499999999998</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" ref="G5:G11" si="1">E5+E5*$B$1</f>
+        <f t="shared" ref="G5:G8" si="1">E5+E5*$B$1</f>
         <v>14.743</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H11" si="2">C5*D5</f>
+        <f t="shared" ref="H5:H8" si="2">C5*D5</f>
         <v>281.55</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6">
-        <f t="shared" ref="J5:J11" si="3">I5*C5</f>
+        <f t="shared" ref="J5:J8" si="3">I5*C5</f>
         <v>0</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" ref="L5:L11" si="4">IF(J5&gt;0,J5,C5*E5)</f>
+        <f t="shared" ref="L5:L8" si="4">IF(J5&gt;0,J5,C5*E5)</f>
         <v>192.3</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M11" si="5">IF(J5&gt;0,IF(J5&gt;=H5,"Lucro","Prejuíso"),IF(L5&gt;=H5,"Em alta","Em baixa"))</f>
+        <f t="shared" ref="M5:M8" si="5">IF(J5&gt;0,IF(J5&gt;=H5,"Lucro","Prejuíso"),IF(L5&gt;=H5,"Em alta","Em baixa"))</f>
         <v>Em baixa</v>
       </c>
     </row>
@@ -1469,6 +1158,7 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1501,12 +1191,9 @@
         <f>SUM(H4:H16)</f>
         <v>2316.4499999999998</v>
       </c>
-      <c r="I17" s="6">
-        <f t="shared" ref="I17:J17" si="6">SUM(I4:I16)</f>
-        <v>133.72399999999999</v>
-      </c>
+      <c r="I17" s="6"/>
       <c r="J17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J17" si="6">SUM(J4:J16)</f>
         <v>1925.07</v>
       </c>
       <c r="K17" s="6"/>
@@ -1575,7 +1262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9B9FCE-319F-4611-B3C5-E5837D92AF8B}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2038,7 +1727,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:13" ht="17.25" x14ac:dyDescent="0.4">
       <c r="G17" s="3" t="s">
         <v>23</v>
       </c>
@@ -2046,12 +1735,9 @@
         <f>SUM(H4:H16)</f>
         <v>7427.8</v>
       </c>
-      <c r="I17" s="6">
-        <f t="shared" ref="I17:J17" si="6">SUM(I4:I16)</f>
-        <v>155.82599999999999</v>
-      </c>
+      <c r="I17" s="11"/>
       <c r="J17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J17" si="6">SUM(J4:J16)</f>
         <v>7062.72</v>
       </c>
       <c r="K17" s="6"/>
@@ -2113,6 +1799,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2120,7 +1807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2476C420-4541-4B62-8AFE-D16E1F95B731}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2262,28 +1951,28 @@
         <v>12.82</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F11" si="0">D5-D5*$B$2</f>
+        <f t="shared" ref="F5" si="0">D5-D5*$B$2</f>
         <v>12.7775</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" ref="G5:G11" si="1">E5+E5*$B$1</f>
+        <f t="shared" ref="G5" si="1">E5+E5*$B$1</f>
         <v>14.743</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H11" si="2">C5*D5</f>
+        <f t="shared" ref="H5" si="2">C5*D5</f>
         <v>201.75</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6">
-        <f t="shared" ref="J5:J11" si="3">I5*C5</f>
+        <f t="shared" ref="J5" si="3">I5*C5</f>
         <v>0</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" ref="L5:L11" si="4">IF(J5&gt;0,J5,C5*E5)</f>
+        <f t="shared" ref="L5" si="4">IF(J5&gt;0,J5,C5*E5)</f>
         <v>192.3</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M11" si="5">IF(J5&gt;0,IF(J5&gt;=H5,"Lucro","Prejuíso"),IF(L5&gt;=H5,"Em alta","Em baixa"))</f>
+        <f t="shared" ref="M5" si="5">IF(J5&gt;0,IF(J5&gt;=H5,"Lucro","Prejuíso"),IF(L5&gt;=H5,"Em alta","Em baixa"))</f>
         <v>Em baixa</v>
       </c>
     </row>
@@ -2485,12 +2174,9 @@
         <f>SUM(H4:H16)</f>
         <v>1688.6</v>
       </c>
-      <c r="I17" s="6">
-        <f>SUM(I4:I16)</f>
-        <v>27.500999999999998</v>
-      </c>
+      <c r="I17" s="6"/>
       <c r="J17" s="6">
-        <f t="shared" ref="I17:J17" si="12">SUM(J4:J16)</f>
+        <f t="shared" ref="J17" si="12">SUM(J4:J16)</f>
         <v>550.02</v>
       </c>
       <c r="K17" s="6"/>
@@ -2552,33 +2238,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E8">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
       <formula>$D6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="lessThan">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="between">
       <formula>1</formula>
       <formula>$D8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="between">
       <formula>1</formula>
       <formula>$D6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Lucro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Em baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Prejuíso"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2590,7 +2276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9768A250-AF26-46F9-ADFC-79A614D64D64}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3061,12 +2749,9 @@
         <f>SUM(H4:H16)</f>
         <v>8394.9500000000007</v>
       </c>
-      <c r="I17" s="6">
-        <f t="shared" ref="I17:K17" si="6">SUM(I4:I16)</f>
-        <v>151.83099999999999</v>
-      </c>
+      <c r="I17" s="6"/>
       <c r="J17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J17" si="6">SUM(J4:J16)</f>
         <v>6982.8200000000006</v>
       </c>
       <c r="K17" s="6"/>
@@ -3081,49 +2766,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
       <formula>$D4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="lessThan">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E11">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
       <formula>$D5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
       <formula>1</formula>
       <formula>$D11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I10">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>1</formula>
       <formula>$D4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M11">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Lucro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Em baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Prejuíso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Prejuíso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Lucro"</formula>
     </cfRule>
   </conditionalFormatting>
